--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="225">
   <si>
     <t>School Name</t>
   </si>
@@ -627,6 +627,78 @@
   </si>
   <si>
     <t>Success - 2021/01/31 13:37:47</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:48:22</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:48:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:48:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:49:19</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:49:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:49:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:49:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:49:54</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:50:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:50:13</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:50:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 13:50:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:44:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:44:54</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:45:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:45:48</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:46:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:46:13</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:46:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:46:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:46:31</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:46:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:46:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:47:00</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1059,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -1057,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1230,7 +1302,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1253,7 +1325,7 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1276,7 +1348,7 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1407,7 +1479,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1457,7 +1529,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1507,7 +1579,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1573,7 +1645,7 @@
         <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="312">
   <si>
     <t>School Name</t>
   </si>
@@ -699,6 +699,267 @@
   </si>
   <si>
     <t>Success - 2021/01/31 15:47:00</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:48:02</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:48:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:48:39</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:49:04</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:49:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:49:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:49:40</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:49:48</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:50:00</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:50:01</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:50:17</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:53:21</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:53:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:53:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:54:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:54:40</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:54:42</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:54:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:54:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:55:04</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:55:12</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 15:55:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:29:10</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:29:13</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:29:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:31</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:33</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:51</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:58</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:30:59</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:31:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:36:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:36:54</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:37:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:39:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:39:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:40:24</t>
+  </si>
+  <si>
+    <t>Failure - 2021/01/31 16:44:49</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:47:58</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:48:02</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:48:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:49:10</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:49:40</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:49:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:49:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:50:01</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:50:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:50:09</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:50:25</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:52:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:52:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:52:47</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:53:17</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:53:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:53:46</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:53:47</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:53:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:54:04</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:54:15</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:54:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 16:54:32</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:13:51</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:13:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:14:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:14:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:15:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:15:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:15:31</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:15:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:15:49</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:15:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:15:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 17:16:13</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:41:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:41:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:41:49</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:42:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:42:49</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:42:51</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:42:52</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:43:03</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:43:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:43:20</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 19:43:37</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1320,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1070,7 +1331,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1390,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1302,7 +1563,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>218</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1325,7 +1586,7 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1348,7 +1609,7 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1740,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>220</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1529,7 +1790,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>221</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1579,7 +1840,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>223</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1906,7 @@
         <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="358">
   <si>
     <t>School Name</t>
   </si>
@@ -960,6 +960,144 @@
   </si>
   <si>
     <t>Success - 2021/01/31 19:43:37</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:13:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:13:22</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:13:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:14:26</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:14:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:14:58</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:15:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:15:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:15:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:15:25</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:15:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:31:51</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:31:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:32:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:32:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:33:25</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:33:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:33:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:33:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:33:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:33:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:34:15</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:39:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:39:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:40:32</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:41:03</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:41:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:41:36</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:43:36</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:43:39</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:44:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:44:40</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:45:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:45:10</t>
+  </si>
+  <si>
+    <t>Failure - 2021/01/31 20:48:04</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:50:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:50:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:50:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:51:12</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:51:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:51:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:51:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:52:02</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:52:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:52:12</t>
+  </si>
+  <si>
+    <t>Success - 2021/01/31 20:52:28</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1458,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,7 +1469,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1528,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1563,7 +1701,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1586,7 +1724,7 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,7 +1747,7 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -1740,7 +1878,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -1790,7 +1928,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1840,7 +1978,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -1906,7 +2044,7 @@
         <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4A8BDCAA-430F-4876-A3A2-766CF94A5CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24060" windowHeight="5475"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="24090" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="School Search" sheetId="2" r:id="rId1"/>
@@ -14,7 +15,7 @@
     <sheet name="Payment" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M16"/>
+  <oleSize ref="A1:L21"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
   <si>
     <t>School Name</t>
   </si>
@@ -335,775 +336,175 @@
     <t>0924</t>
   </si>
   <si>
-    <t>Success - 2021/01/30 21:46:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:46:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:47:29</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:47:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:47:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:47:46</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:47:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:48:09</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 21:48:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:52:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:53:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:53:36</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:54:01</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:54:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:54:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:54:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:54:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:54:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:55:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:55:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:55:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/30 22:55:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:31:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:32:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:32:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:33:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:33:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:33:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:33:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:33:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:33:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:33:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:34:09</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:34:10</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:34:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 11:34:31</t>
-  </si>
-  <si>
-    <t>Failure - 2021/01/31 12:18:12</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:31:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:31:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:32:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:32:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:32:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:32:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:32:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:33:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:33:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:33:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:33:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:33:35</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:33:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:44:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:45:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:45:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:45:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:46:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:46:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:46:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:46:40</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:46:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:47:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:47:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 12:47:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:06:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:07:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:07:35</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:08:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:08:23</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:08:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:08:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:08:40</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:08:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:09:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:09:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:09:22</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:29:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:29:42</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:30:13</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:30:39</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:19</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:31:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:32:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:35:20</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:35:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:36:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:36:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:36:48</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:36:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:37:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:37:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:37:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:37:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:37:47</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:48:22</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:48:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:48:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:49:19</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:49:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:49:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:49:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:49:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:50:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:50:13</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:50:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 13:50:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:44:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:44:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:45:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:45:48</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:46:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:46:13</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:46:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:46:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:46:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:46:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:46:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:47:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:48:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:48:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:48:39</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:49:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:49:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:49:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:49:40</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:49:48</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:50:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:50:01</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:50:17</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:53:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:53:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:53:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:54:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:54:40</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:54:42</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:54:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:54:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:55:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:55:12</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 15:55:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:29:10</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:29:13</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:29:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:30:59</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:31:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:36:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:36:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:37:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:39:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:39:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:40:24</t>
-  </si>
-  <si>
-    <t>Failure - 2021/01/31 16:44:49</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:47:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:48:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:48:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:49:10</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:49:40</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:49:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:49:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:50:01</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:50:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:50:09</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:50:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:52:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:52:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:52:47</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:53:17</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:53:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:53:46</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:53:47</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:53:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:54:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:54:15</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:54:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 16:54:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:13:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:13:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:14:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:14:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:15:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:15:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:15:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:15:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:15:49</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:15:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:15:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 17:16:13</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:41:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:41:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:41:49</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:42:18</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:42:49</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:42:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:42:52</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:43:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:43:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:43:20</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 19:43:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:13:18</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:13:22</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:13:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:14:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:14:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:14:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:15:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:15:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:15:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:15:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:15:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:31:51</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:31:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:32:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:32:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:33:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:33:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:33:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:33:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:33:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:33:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:34:15</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:39:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:39:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:40:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:41:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:41:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:41:36</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:43:36</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:43:39</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:44:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:44:40</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:45:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:45:10</t>
-  </si>
-  <si>
-    <t>Failure - 2021/01/31 20:48:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:50:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:50:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:50:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:51:12</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:51:41</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:51:43</t>
-  </si>
-  <si>
     <t>Success - 2021/01/31 20:51:53</t>
   </si>
   <si>
     <t>Success - 2021/01/31 20:52:02</t>
   </si>
   <si>
-    <t>Success - 2021/01/31 20:52:11</t>
-  </si>
-  <si>
     <t>Success - 2021/01/31 20:52:12</t>
   </si>
   <si>
     <t>Success - 2021/01/31 20:52:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:33:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:33:09</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:34:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:34:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:34:46</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:46:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:46:31</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:47:06</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:47:35</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:48:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:48:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:48:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:48:25</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:48:33</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 20:48:49</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:39:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:39:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:40:09</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:40:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:37</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/06 21:41:54</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:27:26</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:27:29</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:28:06</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:28:37</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:29:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:29:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:29:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:29:26</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:29:37</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:29:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 10:29:54</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:06:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:06:21</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:06:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:07:26</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:07:54</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:07:56</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:07:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:08:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:08:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:08:22</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:08:23</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/07 14:08:39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1427,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1458,7 +859,7 @@
         <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>347</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>348</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1528,7 +929,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>351</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1642,7 +1043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1701,7 +1102,7 @@
         <v>89</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,7 +1125,7 @@
         <v>89</v>
       </c>
       <c r="G3" t="s">
-        <v>352</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1747,7 +1148,7 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1756,8 +1157,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1779,9 +1180,10 @@
     <col min="14" max="14" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
     <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1830,8 +1232,11 @@
       <c r="P1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1878,10 +1283,10 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -1928,10 +1333,10 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -1978,22 +1383,22 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>356</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2005,9 +1410,10 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -2026,8 +1432,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>94</v>
       </c>
@@ -2044,7 +1453,7 @@
         <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>357</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4A8BDCAA-430F-4876-A3A2-766CF94A5CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D1A7279F-CC65-45C8-BA74-DCB5D332B554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="24090" windowHeight="8940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="24120" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="School Search" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Payment" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L21"/>
+  <oleSize ref="A1:M21"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
   <si>
     <t>School Name</t>
   </si>
@@ -195,12 +195,6 @@
     <t>Chaska High School Chaska, MN Products - Graduation Products from Jostens</t>
   </si>
   <si>
-    <t>Next Level Unisex Triblend Long Sleeve Pullover Hoodie</t>
-  </si>
-  <si>
-    <t>Next Level Unisex Triblend Long Sleeve Pullover Hoodie - Jostens School Store</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
@@ -210,12 +204,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>$33.95</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -294,9 +282,6 @@
     <t>$18.95</t>
   </si>
   <si>
-    <t>$77.85</t>
-  </si>
-  <si>
     <t>Credit Card Number</t>
   </si>
   <si>
@@ -336,169 +321,91 @@
     <t>0924</t>
   </si>
   <si>
-    <t>Success - 2021/01/31 20:51:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:52:02</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:52:12</t>
-  </si>
-  <si>
-    <t>Success - 2021/01/31 20:52:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:33:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:33:09</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:34:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:34:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:34:46</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Success - 2021/02/06 20:46:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:46:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:47:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:47:35</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:48:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:48:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:48:18</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:48:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:48:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 20:48:49</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:39:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:39:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:40:09</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:40:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:08</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:18</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/06 21:41:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:27:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:27:29</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:28:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:28:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:29:05</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:29:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:29:18</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:29:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:29:37</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:29:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 10:29:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:06:18</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:06:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:06:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:07:26</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:07:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:07:56</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:07:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:08:07</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:08:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:08:22</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:08:23</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/07 14:08:39</t>
+    <t>Success - 2021/02/15 19:05:15</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:05:18</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:07:25</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/15 19:07:27</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/15 19:07:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:07:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:07:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:07:53</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:08:08</t>
+  </si>
+  <si>
+    <t>New Era Women's Tri-Blend Fleece Pullover Hoodie</t>
+  </si>
+  <si>
+    <t>New Era Women's Tri-Blend Fleece Pullover Hoodie - Jostens School Store</t>
+  </si>
+  <si>
+    <t>Grey</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>17.5</t>
+  </si>
+  <si>
+    <t>$35.95</t>
+  </si>
+  <si>
+    <t>$79.85</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:17:31</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:17:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:18:06</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:18:33</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:19:01</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:19:03</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:19:12</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:19:20</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:19:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:19:28</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 19:19:43</t>
   </si>
 </sst>
 </file>
@@ -853,13 +760,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +777,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -940,7 +847,7 @@
         <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -964,77 +871,77 @@
         <v>53</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D3" t="s">
         <v>57</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" t="s">
         <v>60</v>
       </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>66</v>
+        <v>113</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1099,56 +1006,56 @@
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="Q1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1283,18 +1190,18 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -1306,45 +1213,45 @@
         <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
         <v>46</v>
       </c>
       <c r="L3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="O3" t="s">
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>40</v>
@@ -1356,16 +1263,16 @@
         <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
         <v>46</v>
@@ -1374,16 +1281,16 @@
         <v>47</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="O4" t="s">
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1415,45 +1322,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
   <si>
     <t>School Name</t>
   </si>
@@ -406,6 +406,69 @@
   </si>
   <si>
     <t>Success - 2021/02/15 19:19:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:27:21</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:27:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:27:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:28:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:28:52</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:28:54</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:28:55</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:29:04</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:29:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:29:19</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:29:35</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:35:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:35:47</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:36:19</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:36:46</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:37:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:37:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:37:25</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:37:36</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:37:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:38:01</t>
   </si>
 </sst>
 </file>
@@ -766,7 +829,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,7 +840,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -836,7 +899,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1009,7 +1072,7 @@
         <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +1095,7 @@
         <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1118,7 @@
         <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1190,7 +1253,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1240,7 +1303,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1290,7 +1353,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1360,7 +1423,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
   <si>
     <t>School Name</t>
   </si>
@@ -469,6 +469,36 @@
   </si>
   <si>
     <t>Success - 2021/02/15 20:38:01</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:47:57</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:48:00</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:48:32</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:49:00</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:49:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:49:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:49:39</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:49:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:49:58</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 20:50:14</t>
   </si>
 </sst>
 </file>
@@ -829,7 +859,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,7 +870,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -899,7 +929,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1072,7 +1102,7 @@
         <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1095,7 +1125,7 @@
         <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1118,7 +1148,7 @@
         <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1283,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1303,7 +1333,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1353,7 +1383,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1453,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
   <si>
     <t>School Name</t>
   </si>
@@ -499,6 +499,39 @@
   </si>
   <si>
     <t>Success - 2021/02/15 20:50:14</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:55:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:55:48</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:56:20</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:56:47</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:57:15</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:57:17</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:57:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:57:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:57:41</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:57:42</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/15 21:57:59</t>
   </si>
 </sst>
 </file>
@@ -859,7 +892,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +903,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +962,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1102,7 +1135,7 @@
         <v>115</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1125,7 +1158,7 @@
         <v>115</v>
       </c>
       <c r="G3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1148,7 +1181,7 @@
         <v>115</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1316,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1333,7 +1366,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1383,7 +1416,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1453,7 +1486,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{D1A7279F-CC65-45C8-BA74-DCB5D332B554}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{000D00C9-5D6F-4F85-93DC-A87ACAF290A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="24120" windowHeight="12405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="24150" windowHeight="15870" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="School Search" sheetId="2" r:id="rId1"/>
-    <sheet name="Product Search" sheetId="3" r:id="rId2"/>
-    <sheet name="Shopping Cart" sheetId="5" r:id="rId3"/>
-    <sheet name="Checkout" sheetId="6" r:id="rId4"/>
-    <sheet name="Payment" sheetId="7" r:id="rId5"/>
+    <sheet name="Login" sheetId="8" r:id="rId1"/>
+    <sheet name="School Search" sheetId="2" r:id="rId2"/>
+    <sheet name="Product Search" sheetId="3" r:id="rId3"/>
+    <sheet name="Shopping Cart" sheetId="5" r:id="rId4"/>
+    <sheet name="Checkout" sheetId="6" r:id="rId5"/>
+    <sheet name="Payment" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:M21"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
   <si>
     <t>School Name</t>
   </si>
@@ -324,33 +325,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Success - 2021/02/15 19:05:15</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:05:18</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:07:25</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/15 19:07:27</t>
-  </si>
-  <si>
-    <t>Failure - 2021/02/15 19:07:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:07:38</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:07:45</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:07:53</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:08:08</t>
-  </si>
-  <si>
     <t>New Era Women's Tri-Blend Fleece Pullover Hoodie</t>
   </si>
   <si>
@@ -375,144 +349,12 @@
     <t>$79.85</t>
   </si>
   <si>
-    <t>Success - 2021/02/15 19:17:31</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:17:34</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:18:06</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:18:33</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:19:01</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:19:03</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:19:12</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:19:20</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:19:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:19:28</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 19:19:43</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:27:21</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:27:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:27:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:28:24</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:28:52</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:28:54</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:28:55</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:29:04</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:29:11</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:29:19</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:29:35</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:35:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:35:47</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:36:19</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:36:46</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:37:14</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:37:16</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:37:25</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:37:36</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:37:44</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:38:01</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:47:57</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:48:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:48:32</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:49:00</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:49:27</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:49:30</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:49:39</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:49:50</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:49:58</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 20:50:14</t>
-  </si>
-  <si>
     <t>Success - 2021/02/15 21:55:45</t>
   </si>
   <si>
     <t>Success - 2021/02/15 21:55:48</t>
   </si>
   <si>
-    <t>Success - 2021/02/15 21:56:20</t>
-  </si>
-  <si>
-    <t>Success - 2021/02/15 21:56:47</t>
-  </si>
-  <si>
     <t>Success - 2021/02/15 21:57:15</t>
   </si>
   <si>
@@ -525,20 +367,37 @@
     <t>Success - 2021/02/15 21:57:34</t>
   </si>
   <si>
-    <t>Success - 2021/02/15 21:57:41</t>
-  </si>
-  <si>
     <t>Success - 2021/02/15 21:57:42</t>
   </si>
   <si>
     <t>Success - 2021/02/15 21:57:59</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Final Status</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -861,6 +720,51 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE77205F-D0B0-4252-9E18-69266A874B48}">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -868,9 +772,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="76.5703125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,7 +796,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,7 +807,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -911,7 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K4"/>
   <sheetViews>
@@ -919,15 +823,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="77.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="8" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -962,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1002,13 +906,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -1020,16 +924,16 @@
         <v>60</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K3" t="s">
         <v>94</v>
@@ -1075,7 +979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1083,13 +987,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1132,33 +1036,33 @@
         <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1178,10 +1082,10 @@
         <v>84</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
@@ -1197,23 +1101,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1316,18 +1220,18 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -1366,7 +1270,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1416,7 +1320,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1437,13 +1341,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1486,7 +1390,7 @@
         <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -18,7 +18,7 @@
   <calcPr calcId="0"/>
   <oleSize ref="A1:M21"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
   <si>
     <t>School Name</t>
   </si>
@@ -392,12 +392,55 @@
   </si>
   <si>
     <t>Final Status</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:32:24</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:32:32</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:32:35</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:33:09</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:33:37</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:34:05</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:34:07</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:34:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:34:19</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:34:26</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:34:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 08:34:35</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/16 09:12:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:15:59</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -727,13 +770,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="5.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,7 +799,7 @@
         <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -772,9 +815,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="76.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="76.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -796,7 +839,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,7 +850,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -823,15 +866,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="77.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -866,7 +909,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -987,13 +1030,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1039,7 +1082,7 @@
         <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1062,7 +1105,7 @@
         <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1085,7 +1128,7 @@
         <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1101,23 +1144,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="42" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="8.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="9.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="8.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1220,7 +1263,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1270,7 +1313,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1320,7 +1363,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1341,13 +1384,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="11.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1367,7 +1410,7 @@
         <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>2</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s">
         <v>98</v>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
   <si>
     <t>School Name</t>
   </si>
@@ -434,6 +434,105 @@
   </si>
   <si>
     <t>Success - 2021/02/16 09:15:59</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:16:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:16:52</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:16:59</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:17:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:18:11</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:18:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:18:48</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:18:49</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:18:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:19:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:19:32</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:19:51</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 09:19:52</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:14:21</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:14:30</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:14:38</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/16 11:14:58</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:17:59</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:18:06</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:18:16</t>
+  </si>
+  <si>
+    <t>Failure - 2021/02/16 11:18:34</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:20:16</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:20:38</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:20:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:21:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:22:03</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:22:37</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:22:42</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:22:43</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:22:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:23:09</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:23:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:23:44</t>
   </si>
 </sst>
 </file>
@@ -799,7 +898,7 @@
         <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -839,7 +938,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +949,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -909,7 +1008,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1082,7 +1181,7 @@
         <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,7 +1204,7 @@
         <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1128,7 +1227,7 @@
         <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1263,7 +1362,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1313,7 +1412,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1363,7 +1462,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1509,7 @@
         <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
         <v>98</v>

--- a/target/classes/com/jostens/qa/testdata/Jostens.xlsx
+++ b/target/classes/com/jostens/qa/testdata/Jostens.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="182">
   <si>
     <t>School Name</t>
   </si>
@@ -533,6 +533,45 @@
   </si>
   <si>
     <t>Success - 2021/02/16 11:23:44</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:35:32</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:35:45</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:35:52</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:36:42</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:37:27</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:38:02</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:38:06</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:38:08</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:38:10</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:38:31</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:38:50</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:39:10</t>
+  </si>
+  <si>
+    <t>Success - 2021/02/16 11:39:11</t>
   </si>
 </sst>
 </file>
@@ -898,7 +937,7 @@
         <v>120</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -938,7 +977,7 @@
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +988,7 @@
         <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1008,7 +1047,7 @@
         <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1181,7 +1220,7 @@
         <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1204,7 +1243,7 @@
         <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1227,7 +1266,7 @@
         <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -1362,7 +1401,7 @@
         <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1412,7 +1451,7 @@
         <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1462,7 +1501,7 @@
         <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -1509,7 +1548,7 @@
         <v>88</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
         <v>98</v>
